--- a/Code/Results/Cases/Case_1_110/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_110/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.09805335339873</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.026513451475762</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.09783177296404</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.108616644650447</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.028140619206563</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.102847112248556</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.029335878222186</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.100460518348218</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.111218439142622</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.104413281646281</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.104405593382995</v>
+      </c>
+      <c r="D3">
+        <v>1.026832767717716</v>
+      </c>
+      <c r="E3">
+        <v>1.103670003516491</v>
+      </c>
+      <c r="F3">
+        <v>1.114788855661858</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.028119731977348</v>
+      </c>
+      <c r="J3">
+        <v>1.10884337648179</v>
+      </c>
+      <c r="K3">
+        <v>1.029464047931006</v>
+      </c>
+      <c r="L3">
+        <v>1.106108505368729</v>
+      </c>
+      <c r="M3">
+        <v>1.117201821855033</v>
+      </c>
+      <c r="N3">
+        <v>1.110418061262507</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.108443582862748</v>
+      </c>
+      <c r="D4">
+        <v>1.027038990663314</v>
+      </c>
+      <c r="E4">
+        <v>1.107378870635176</v>
+      </c>
+      <c r="F4">
+        <v>1.118711719516702</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.028104546995959</v>
+      </c>
+      <c r="J4">
+        <v>1.112652785266912</v>
+      </c>
+      <c r="K4">
+        <v>1.029545830079758</v>
+      </c>
+      <c r="L4">
+        <v>1.109694787499421</v>
+      </c>
+      <c r="M4">
+        <v>1.121003064002388</v>
+      </c>
+      <c r="N4">
+        <v>1.114232879845049</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.110124649157004</v>
+      </c>
+      <c r="D5">
+        <v>1.027125589626533</v>
+      </c>
+      <c r="E5">
+        <v>1.108922347814105</v>
+      </c>
+      <c r="F5">
+        <v>1.120344690364351</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.028097762610924</v>
+      </c>
+      <c r="J5">
+        <v>1.114238141915782</v>
+      </c>
+      <c r="K5">
+        <v>1.029579933844558</v>
+      </c>
+      <c r="L5">
+        <v>1.111186838371903</v>
+      </c>
+      <c r="M5">
+        <v>1.122585024345412</v>
+      </c>
+      <c r="N5">
+        <v>1.115820487882204</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.11040596253777</v>
+      </c>
+      <c r="D6">
+        <v>1.027140124207022</v>
+      </c>
+      <c r="E6">
+        <v>1.109180603127335</v>
+      </c>
+      <c r="F6">
+        <v>1.120617945440797</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.028096599963332</v>
+      </c>
+      <c r="J6">
+        <v>1.114503406845985</v>
+      </c>
+      <c r="K6">
+        <v>1.029585643700014</v>
+      </c>
+      <c r="L6">
+        <v>1.111436464920291</v>
+      </c>
+      <c r="M6">
+        <v>1.12284972109255</v>
+      </c>
+      <c r="N6">
+        <v>1.116086129519034</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.108466109162168</v>
+      </c>
+      <c r="D7">
+        <v>1.027040148187642</v>
+      </c>
+      <c r="E7">
+        <v>1.107399555495739</v>
+      </c>
+      <c r="F7">
+        <v>1.118733602000396</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.028104457917983</v>
+      </c>
+      <c r="J7">
+        <v>1.112674031219445</v>
+      </c>
+      <c r="K7">
+        <v>1.029546286868134</v>
+      </c>
+      <c r="L7">
+        <v>1.109714784792312</v>
+      </c>
+      <c r="M7">
+        <v>1.121024264432472</v>
+      </c>
+      <c r="N7">
+        <v>1.114254155969271</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.100215603963021</v>
+      </c>
+      <c r="D8">
+        <v>1.026621446480098</v>
+      </c>
+      <c r="E8">
+        <v>1.099819555733032</v>
+      </c>
+      <c r="F8">
+        <v>1.110717756350485</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.02813390540539</v>
+      </c>
+      <c r="J8">
+        <v>1.104888672805603</v>
+      </c>
+      <c r="K8">
+        <v>1.029379431388346</v>
+      </c>
+      <c r="L8">
+        <v>1.102383891473981</v>
+      </c>
+      <c r="M8">
+        <v>1.11325560930523</v>
+      </c>
+      <c r="N8">
+        <v>1.106457741453489</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.085084158767704</v>
+      </c>
+      <c r="D9">
+        <v>1.025880711243438</v>
+      </c>
+      <c r="E9">
+        <v>1.085899049202684</v>
+      </c>
+      <c r="F9">
+        <v>1.096011396097166</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.02817304963526</v>
+      </c>
+      <c r="J9">
+        <v>1.09059205637272</v>
+      </c>
+      <c r="K9">
+        <v>1.029076656696341</v>
+      </c>
+      <c r="L9">
+        <v>1.08890700394264</v>
+      </c>
+      <c r="M9">
+        <v>1.098989882365453</v>
+      </c>
+      <c r="N9">
+        <v>1.092140822185427</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.074539071504661</v>
+      </c>
+      <c r="D10">
+        <v>1.025385058414673</v>
+      </c>
+      <c r="E10">
+        <v>1.076185259749879</v>
+      </c>
+      <c r="F10">
+        <v>1.085759195548014</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.028190631074268</v>
+      </c>
+      <c r="J10">
+        <v>1.080616298922303</v>
+      </c>
+      <c r="K10">
+        <v>1.02886901662911</v>
+      </c>
+      <c r="L10">
+        <v>1.079493168696168</v>
+      </c>
+      <c r="M10">
+        <v>1.08903594862548</v>
+      </c>
+      <c r="N10">
+        <v>1.082150898015194</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.069849940227187</v>
+      </c>
+      <c r="D11">
+        <v>1.025170031100778</v>
+      </c>
+      <c r="E11">
+        <v>1.071862827280599</v>
+      </c>
+      <c r="F11">
+        <v>1.081199563427574</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.028196236062541</v>
+      </c>
+      <c r="J11">
+        <v>1.07617735901516</v>
+      </c>
+      <c r="K11">
+        <v>1.028777753015332</v>
+      </c>
+      <c r="L11">
+        <v>1.075301881818104</v>
+      </c>
+      <c r="M11">
+        <v>1.084606813595538</v>
+      </c>
+      <c r="N11">
+        <v>1.07770565430423</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.068088347204117</v>
+      </c>
+      <c r="D12">
+        <v>1.025090101753847</v>
+      </c>
+      <c r="E12">
+        <v>1.070238553207456</v>
+      </c>
+      <c r="F12">
+        <v>1.079486514193719</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.028198017265125</v>
+      </c>
+      <c r="J12">
+        <v>1.074509308700391</v>
+      </c>
+      <c r="K12">
+        <v>1.028743651841868</v>
+      </c>
+      <c r="L12">
+        <v>1.073726535510598</v>
+      </c>
+      <c r="M12">
+        <v>1.082942464571025</v>
+      </c>
+      <c r="N12">
+        <v>1.076035235166686</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.068467135768011</v>
+      </c>
+      <c r="D13">
+        <v>1.025107249484422</v>
+      </c>
+      <c r="E13">
+        <v>1.070587834464033</v>
+      </c>
+      <c r="F13">
+        <v>1.079854869268578</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.028197648785465</v>
+      </c>
+      <c r="J13">
+        <v>1.074868003398415</v>
+      </c>
+      <c r="K13">
+        <v>1.028750975765279</v>
+      </c>
+      <c r="L13">
+        <v>1.074065311472542</v>
+      </c>
+      <c r="M13">
+        <v>1.083300362542923</v>
+      </c>
+      <c r="N13">
+        <v>1.076394439252323</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.069704739395546</v>
+      </c>
+      <c r="D14">
+        <v>1.025163425298074</v>
+      </c>
+      <c r="E14">
+        <v>1.071728954022243</v>
+      </c>
+      <c r="F14">
+        <v>1.081058365980432</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.028196389426979</v>
+      </c>
+      <c r="J14">
+        <v>1.076039877637013</v>
+      </c>
+      <c r="K14">
+        <v>1.028774938309025</v>
+      </c>
+      <c r="L14">
+        <v>1.075172048419532</v>
+      </c>
+      <c r="M14">
+        <v>1.084469636920416</v>
+      </c>
+      <c r="N14">
+        <v>1.077567977686757</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.070464596222352</v>
+      </c>
+      <c r="D15">
+        <v>1.025198029374264</v>
+      </c>
+      <c r="E15">
+        <v>1.072429514078339</v>
+      </c>
+      <c r="F15">
+        <v>1.081797268235964</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.028195573671256</v>
+      </c>
+      <c r="J15">
+        <v>1.076759319179733</v>
+      </c>
+      <c r="K15">
+        <v>1.028789675730796</v>
+      </c>
+      <c r="L15">
+        <v>1.075851453403175</v>
+      </c>
+      <c r="M15">
+        <v>1.085187484652286</v>
+      </c>
+      <c r="N15">
+        <v>1.078288440918988</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.074847568289784</v>
+      </c>
+      <c r="D16">
+        <v>1.025399320714895</v>
+      </c>
+      <c r="E16">
+        <v>1.076469570137944</v>
+      </c>
+      <c r="F16">
+        <v>1.086059157625467</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.028190216864643</v>
+      </c>
+      <c r="J16">
+        <v>1.080908273565216</v>
+      </c>
+      <c r="K16">
+        <v>1.028875045105079</v>
+      </c>
+      <c r="L16">
+        <v>1.079768804059025</v>
+      </c>
+      <c r="M16">
+        <v>1.089327280529089</v>
+      </c>
+      <c r="N16">
+        <v>1.082443287295591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.077563028125211</v>
+      </c>
+      <c r="D17">
+        <v>1.025525478374841</v>
+      </c>
+      <c r="E17">
+        <v>1.078971799157513</v>
+      </c>
+      <c r="F17">
+        <v>1.08869940929075</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.028186319765488</v>
+      </c>
+      <c r="J17">
+        <v>1.083477962658544</v>
+      </c>
+      <c r="K17">
+        <v>1.02892823368536</v>
+      </c>
+      <c r="L17">
+        <v>1.08219441823999</v>
+      </c>
+      <c r="M17">
+        <v>1.091891323836587</v>
+      </c>
+      <c r="N17">
+        <v>1.085016625642178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.079135135854873</v>
+      </c>
+      <c r="D18">
+        <v>1.025599024633322</v>
+      </c>
+      <c r="E18">
+        <v>1.080420176361245</v>
+      </c>
+      <c r="F18">
+        <v>1.090227904816556</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.028183852859585</v>
+      </c>
+      <c r="J18">
+        <v>1.084965394394467</v>
+      </c>
+      <c r="K18">
+        <v>1.028959126925033</v>
+      </c>
+      <c r="L18">
+        <v>1.083598227439822</v>
+      </c>
+      <c r="M18">
+        <v>1.093375496306922</v>
+      </c>
+      <c r="N18">
+        <v>1.086506169701777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.079669226200715</v>
+      </c>
+      <c r="D19">
+        <v>1.025624095254975</v>
+      </c>
+      <c r="E19">
+        <v>1.080912184091874</v>
+      </c>
+      <c r="F19">
+        <v>1.090747166704749</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.028182978809425</v>
+      </c>
+      <c r="J19">
+        <v>1.085470669992423</v>
+      </c>
+      <c r="K19">
+        <v>1.028969638492465</v>
+      </c>
+      <c r="L19">
+        <v>1.084075058294808</v>
+      </c>
+      <c r="M19">
+        <v>1.093879666144678</v>
+      </c>
+      <c r="N19">
+        <v>1.087012162849038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.077272912261523</v>
+      </c>
+      <c r="D20">
+        <v>1.025511946906639</v>
+      </c>
+      <c r="E20">
+        <v>1.078704493712073</v>
+      </c>
+      <c r="F20">
+        <v>1.088417335853236</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.028186757925705</v>
+      </c>
+      <c r="J20">
+        <v>1.083203450040396</v>
+      </c>
+      <c r="K20">
+        <v>1.028922540567341</v>
+      </c>
+      <c r="L20">
+        <v>1.08193532024399</v>
+      </c>
+      <c r="M20">
+        <v>1.091617413417704</v>
+      </c>
+      <c r="N20">
+        <v>1.084741723184625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.069340855148089</v>
+      </c>
+      <c r="D21">
+        <v>1.025146884520152</v>
+      </c>
+      <c r="E21">
+        <v>1.071393450439002</v>
+      </c>
+      <c r="F21">
+        <v>1.080704512829547</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.028196768571165</v>
+      </c>
+      <c r="J21">
+        <v>1.075695331700338</v>
+      </c>
+      <c r="K21">
+        <v>1.028767887494854</v>
+      </c>
+      <c r="L21">
+        <v>1.074846663530097</v>
+      </c>
+      <c r="M21">
+        <v>1.084125854889533</v>
+      </c>
+      <c r="N21">
+        <v>1.077222942455332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.064238104427365</v>
+      </c>
+      <c r="D22">
+        <v>1.024917017289605</v>
+      </c>
+      <c r="E22">
+        <v>1.066687636767778</v>
+      </c>
+      <c r="F22">
+        <v>1.075742183173769</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.028201323127522</v>
+      </c>
+      <c r="J22">
+        <v>1.07086269356966</v>
+      </c>
+      <c r="K22">
+        <v>1.028669484195791</v>
+      </c>
+      <c r="L22">
+        <v>1.070281927636758</v>
+      </c>
+      <c r="M22">
+        <v>1.079303975188547</v>
+      </c>
+      <c r="N22">
+        <v>1.072383441424197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.066954605760929</v>
+      </c>
+      <c r="D23">
+        <v>1.025038905493158</v>
+      </c>
+      <c r="E23">
+        <v>1.069193064959821</v>
+      </c>
+      <c r="F23">
+        <v>1.078383985849575</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.028199073251875</v>
+      </c>
+      <c r="J23">
+        <v>1.073435643908781</v>
+      </c>
+      <c r="K23">
+        <v>1.028721759700692</v>
+      </c>
+      <c r="L23">
+        <v>1.072712440134119</v>
+      </c>
+      <c r="M23">
+        <v>1.081871187273233</v>
+      </c>
+      <c r="N23">
+        <v>1.074960045647921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.077404039418295</v>
+      </c>
+      <c r="D24">
+        <v>1.025518061316701</v>
+      </c>
+      <c r="E24">
+        <v>1.078825311841547</v>
+      </c>
+      <c r="F24">
+        <v>1.08854482819731</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.028186560538906</v>
+      </c>
+      <c r="J24">
+        <v>1.083327525686048</v>
+      </c>
+      <c r="K24">
+        <v>1.028925113446604</v>
+      </c>
+      <c r="L24">
+        <v>1.08205242941086</v>
+      </c>
+      <c r="M24">
+        <v>1.091741216851345</v>
+      </c>
+      <c r="N24">
+        <v>1.084865975031926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.089072050235844</v>
+      </c>
+      <c r="D25">
+        <v>1.026072541693807</v>
+      </c>
+      <c r="E25">
+        <v>1.089569982453749</v>
+      </c>
+      <c r="F25">
+        <v>1.099887852526804</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.028164434695646</v>
+      </c>
+      <c r="J25">
+        <v>1.094362072983758</v>
+      </c>
+      <c r="K25">
+        <v>1.029155958733625</v>
+      </c>
+      <c r="L25">
+        <v>1.092462592892234</v>
+      </c>
+      <c r="M25">
+        <v>1.102751716153853</v>
+      </c>
+      <c r="N25">
+        <v>1.09591619265248</v>
       </c>
     </row>
   </sheetData>
